--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.17439995018504</v>
+        <v>4.025457</v>
       </c>
       <c r="H2">
-        <v>1.17439995018504</v>
+        <v>12.076371</v>
       </c>
       <c r="I2">
-        <v>0.00282104125513921</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J2">
-        <v>0.00282104125513921</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>41.4148056366349</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N2">
-        <v>41.4148056366349</v>
+        <v>0.353392</v>
       </c>
       <c r="O2">
-        <v>0.4218918535179724</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P2">
-        <v>0.4218918535179724</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q2">
-        <v>48.63754567658714</v>
+        <v>0.474188100048</v>
       </c>
       <c r="R2">
-        <v>48.63754567658714</v>
+        <v>4.267692900431999</v>
       </c>
       <c r="S2">
-        <v>0.001190174323981348</v>
+        <v>8.303260165505333E-06</v>
       </c>
       <c r="T2">
-        <v>0.001190174323981348</v>
+        <v>8.375015858143485E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.17439995018504</v>
+        <v>4.025457</v>
       </c>
       <c r="H3">
-        <v>1.17439995018504</v>
+        <v>12.076371</v>
       </c>
       <c r="I3">
-        <v>0.00282104125513921</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J3">
-        <v>0.00282104125513921</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>56.7497009574007</v>
+        <v>0.020824</v>
       </c>
       <c r="N3">
-        <v>56.7497009574007</v>
+        <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.5781081464820276</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P3">
-        <v>0.5781081464820276</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q3">
-        <v>66.6468459773873</v>
+        <v>0.083826116568</v>
       </c>
       <c r="R3">
-        <v>66.6468459773873</v>
+        <v>0.754435049112</v>
       </c>
       <c r="S3">
-        <v>0.001630866931157861</v>
+        <v>1.467835347318132E-06</v>
       </c>
       <c r="T3">
-        <v>0.001630866931157861</v>
+        <v>1.480520189166534E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>132.092397373363</v>
+        <v>4.025457</v>
       </c>
       <c r="H4">
-        <v>132.092397373363</v>
+        <v>12.076371</v>
       </c>
       <c r="I4">
-        <v>0.3173008500398743</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J4">
-        <v>0.3173008500398743</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.4148056366349</v>
+        <v>54.104803</v>
       </c>
       <c r="N4">
-        <v>41.4148056366349</v>
+        <v>162.314409</v>
       </c>
       <c r="O4">
-        <v>0.4218918535179724</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P4">
-        <v>0.4218918535179724</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q4">
-        <v>5470.580963294972</v>
+        <v>217.796557969971</v>
       </c>
       <c r="R4">
-        <v>5470.580963294972</v>
+        <v>1960.169021729739</v>
       </c>
       <c r="S4">
-        <v>0.1338666437461508</v>
+        <v>0.003813721777904538</v>
       </c>
       <c r="T4">
-        <v>0.1338666437461508</v>
+        <v>0.003846679464674322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>132.092397373363</v>
+        <v>4.025457</v>
       </c>
       <c r="H5">
-        <v>132.092397373363</v>
+        <v>12.076371</v>
       </c>
       <c r="I5">
-        <v>0.3173008500398743</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J5">
-        <v>0.3173008500398743</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.7497009574007</v>
+        <v>58.93420533333333</v>
       </c>
       <c r="N5">
-        <v>56.7497009574007</v>
+        <v>176.802616</v>
       </c>
       <c r="O5">
-        <v>0.5781081464820276</v>
+        <v>0.5200319658449</v>
       </c>
       <c r="P5">
-        <v>0.5781081464820276</v>
+        <v>0.5202621374970865</v>
       </c>
       <c r="Q5">
-        <v>7496.204049684492</v>
+        <v>237.237109398504</v>
       </c>
       <c r="R5">
-        <v>7496.204049684492</v>
+        <v>2135.133984586536</v>
       </c>
       <c r="S5">
-        <v>0.1834342062937235</v>
+        <v>0.004154135120743922</v>
       </c>
       <c r="T5">
-        <v>0.1834342062937235</v>
+        <v>0.004190034615274973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0814320131703</v>
+        <v>4.025457</v>
       </c>
       <c r="H6">
-        <v>80.0814320131703</v>
+        <v>12.076371</v>
       </c>
       <c r="I6">
-        <v>0.1923646398692235</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J6">
-        <v>0.1923646398692235</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>41.4148056366349</v>
+        <v>0.150414</v>
       </c>
       <c r="N6">
-        <v>41.4148056366349</v>
+        <v>0.300828</v>
       </c>
       <c r="O6">
-        <v>0.4218918535179724</v>
+        <v>0.001327244300117055</v>
       </c>
       <c r="P6">
-        <v>0.4218918535179724</v>
+        <v>0.0008852211683280384</v>
       </c>
       <c r="Q6">
-        <v>3316.55694192884</v>
+        <v>0.605485089198</v>
       </c>
       <c r="R6">
-        <v>3316.55694192884</v>
+        <v>3.632910535188</v>
       </c>
       <c r="S6">
-        <v>0.08115707446574397</v>
+        <v>1.06023331699726E-05</v>
       </c>
       <c r="T6">
-        <v>0.08115707446574397</v>
+        <v>7.129304768001507E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0814320131703</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H7">
-        <v>80.0814320131703</v>
+        <v>429.64891</v>
       </c>
       <c r="I7">
-        <v>0.1923646398692235</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J7">
-        <v>0.1923646398692235</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>56.7497009574007</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N7">
-        <v>56.7497009574007</v>
+        <v>0.353392</v>
       </c>
       <c r="O7">
-        <v>0.5781081464820276</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P7">
-        <v>0.5781081464820276</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q7">
-        <v>4544.59731898783</v>
+        <v>16.87049862252444</v>
       </c>
       <c r="R7">
-        <v>4544.59731898783</v>
+        <v>151.83448760272</v>
       </c>
       <c r="S7">
-        <v>0.1112075654034796</v>
+        <v>0.0002954104904160187</v>
       </c>
       <c r="T7">
-        <v>0.1112075654034796</v>
+        <v>0.000297963389389417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>193.981490831506</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H8">
-        <v>193.981490831506</v>
+        <v>429.64891</v>
       </c>
       <c r="I8">
-        <v>0.4659654390166353</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J8">
-        <v>0.4659654390166353</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>41.4148056366349</v>
+        <v>0.020824</v>
       </c>
       <c r="N8">
-        <v>41.4148056366349</v>
+        <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.4218918535179724</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P8">
-        <v>0.4218918535179724</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q8">
-        <v>8033.705739891496</v>
+        <v>2.982336300613333</v>
       </c>
       <c r="R8">
-        <v>8033.705739891496</v>
+        <v>26.84102670552</v>
       </c>
       <c r="S8">
-        <v>0.196587022742044</v>
+        <v>5.222213337390071E-05</v>
       </c>
       <c r="T8">
-        <v>0.196587022742044</v>
+        <v>5.267343024724856E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>193.981490831506</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H9">
-        <v>193.981490831506</v>
+        <v>429.64891</v>
       </c>
       <c r="I9">
-        <v>0.4659654390166353</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J9">
-        <v>0.4659654390166353</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.7497009574007</v>
+        <v>54.104803</v>
       </c>
       <c r="N9">
-        <v>56.7497009574007</v>
+        <v>162.314409</v>
       </c>
       <c r="O9">
-        <v>0.5781081464820276</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P9">
-        <v>0.5781081464820276</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q9">
-        <v>11008.39159595873</v>
+        <v>7748.689878238244</v>
       </c>
       <c r="R9">
-        <v>11008.39159595873</v>
+        <v>69738.20890414419</v>
       </c>
       <c r="S9">
-        <v>0.2693784162745913</v>
+        <v>0.1356832615460346</v>
       </c>
       <c r="T9">
-        <v>0.2693784162745913</v>
+        <v>0.136855818616098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.97044844702928</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H10">
-        <v>8.97044844702928</v>
+        <v>429.64891</v>
       </c>
       <c r="I10">
-        <v>0.02154802981912747</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J10">
-        <v>0.02154802981912747</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.4148056366349</v>
+        <v>58.93420533333333</v>
       </c>
       <c r="N10">
-        <v>41.4148056366349</v>
+        <v>176.802616</v>
       </c>
       <c r="O10">
-        <v>0.4218918535179724</v>
+        <v>0.5200319658449</v>
       </c>
       <c r="P10">
-        <v>0.4218918535179724</v>
+        <v>0.5202621374970865</v>
       </c>
       <c r="Q10">
-        <v>371.509378907171</v>
+        <v>8440.339027727618</v>
       </c>
       <c r="R10">
-        <v>371.509378907171</v>
+        <v>75963.05124954856</v>
       </c>
       <c r="S10">
-        <v>0.00909093824005223</v>
+        <v>0.1477943685748264</v>
       </c>
       <c r="T10">
-        <v>0.00909093824005223</v>
+        <v>0.149071588254051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>143.2163033333333</v>
+      </c>
+      <c r="H11">
+        <v>429.64891</v>
+      </c>
+      <c r="I11">
+        <v>0.2842024688515132</v>
+      </c>
+      <c r="J11">
+        <v>0.2865316876050504</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.150414</v>
+      </c>
+      <c r="N11">
+        <v>0.300828</v>
+      </c>
+      <c r="O11">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P11">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q11">
+        <v>21.54173704958</v>
+      </c>
+      <c r="R11">
+        <v>129.25042229748</v>
+      </c>
+      <c r="S11">
+        <v>0.0003772061068623656</v>
+      </c>
+      <c r="T11">
+        <v>0.0002536439152647472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>85.72041200000001</v>
+      </c>
+      <c r="H12">
+        <v>257.161236</v>
+      </c>
+      <c r="I12">
+        <v>0.1701060015818651</v>
+      </c>
+      <c r="J12">
+        <v>0.1715001277151632</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.353392</v>
+      </c>
+      <c r="O12">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P12">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q12">
+        <v>10.09763594583467</v>
+      </c>
+      <c r="R12">
+        <v>90.87872351251201</v>
+      </c>
+      <c r="S12">
+        <v>0.0001768144293505819</v>
+      </c>
+      <c r="T12">
+        <v>0.0001783424366144249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>85.72041200000001</v>
+      </c>
+      <c r="H13">
+        <v>257.161236</v>
+      </c>
+      <c r="I13">
+        <v>0.1701060015818651</v>
+      </c>
+      <c r="J13">
+        <v>0.1715001277151632</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.020824</v>
+      </c>
+      <c r="N13">
+        <v>0.062472</v>
+      </c>
+      <c r="O13">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P13">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q13">
+        <v>1.785041859488</v>
+      </c>
+      <c r="R13">
+        <v>16.065376735392</v>
+      </c>
+      <c r="S13">
+        <v>3.125693572686861E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.152705409340437E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>85.72041200000001</v>
+      </c>
+      <c r="H14">
+        <v>257.161236</v>
+      </c>
+      <c r="I14">
+        <v>0.1701060015818651</v>
+      </c>
+      <c r="J14">
+        <v>0.1715001277151632</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.104803</v>
+      </c>
+      <c r="N14">
+        <v>162.314409</v>
+      </c>
+      <c r="O14">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P14">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q14">
+        <v>4637.886004338837</v>
+      </c>
+      <c r="R14">
+        <v>41740.97403904954</v>
+      </c>
+      <c r="S14">
+        <v>0.08121159959113947</v>
+      </c>
+      <c r="T14">
+        <v>0.08191341965491679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>8.97044844702928</v>
-      </c>
-      <c r="H11">
-        <v>8.97044844702928</v>
-      </c>
-      <c r="I11">
-        <v>0.02154802981912747</v>
-      </c>
-      <c r="J11">
-        <v>0.02154802981912747</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="N11">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="O11">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="P11">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="Q11">
-        <v>509.0702668226912</v>
-      </c>
-      <c r="R11">
-        <v>509.0702668226912</v>
-      </c>
-      <c r="S11">
-        <v>0.01245709157907524</v>
-      </c>
-      <c r="T11">
-        <v>0.01245709157907524</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>85.72041200000001</v>
+      </c>
+      <c r="H15">
+        <v>257.161236</v>
+      </c>
+      <c r="I15">
+        <v>0.1701060015818651</v>
+      </c>
+      <c r="J15">
+        <v>0.1715001277151632</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N15">
+        <v>176.802616</v>
+      </c>
+      <c r="O15">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P15">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q15">
+        <v>5051.864362065931</v>
+      </c>
+      <c r="R15">
+        <v>45466.77925859338</v>
+      </c>
+      <c r="S15">
+        <v>0.08846055840463297</v>
+      </c>
+      <c r="T15">
+        <v>0.08922502302611411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>85.72041200000001</v>
+      </c>
+      <c r="H16">
+        <v>257.161236</v>
+      </c>
+      <c r="I16">
+        <v>0.1701060015818651</v>
+      </c>
+      <c r="J16">
+        <v>0.1715001277151632</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.150414</v>
+      </c>
+      <c r="N16">
+        <v>0.300828</v>
+      </c>
+      <c r="O16">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P16">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q16">
+        <v>12.893550050568</v>
+      </c>
+      <c r="R16">
+        <v>77.361300303408</v>
+      </c>
+      <c r="S16">
+        <v>0.0002257722210152332</v>
+      </c>
+      <c r="T16">
+        <v>0.0001518155434244245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>258.672133</v>
+      </c>
+      <c r="H17">
+        <v>776.016399</v>
+      </c>
+      <c r="I17">
+        <v>0.5133162713366615</v>
+      </c>
+      <c r="J17">
+        <v>0.5175232224251752</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.353392</v>
+      </c>
+      <c r="O17">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P17">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q17">
+        <v>30.47088747504533</v>
+      </c>
+      <c r="R17">
+        <v>274.237987275408</v>
+      </c>
+      <c r="S17">
+        <v>0.0005335597965312254</v>
+      </c>
+      <c r="T17">
+        <v>0.0005381707507830292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>258.672133</v>
+      </c>
+      <c r="H18">
+        <v>776.016399</v>
+      </c>
+      <c r="I18">
+        <v>0.5133162713366615</v>
+      </c>
+      <c r="J18">
+        <v>0.5175232224251752</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.020824</v>
+      </c>
+      <c r="N18">
+        <v>0.062472</v>
+      </c>
+      <c r="O18">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P18">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q18">
+        <v>5.386588497591999</v>
+      </c>
+      <c r="R18">
+        <v>48.479296478328</v>
+      </c>
+      <c r="S18">
+        <v>9.432173792530309E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.513685409663323E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>258.672133</v>
+      </c>
+      <c r="H19">
+        <v>776.016399</v>
+      </c>
+      <c r="I19">
+        <v>0.5133162713366615</v>
+      </c>
+      <c r="J19">
+        <v>0.5175232224251752</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.104803</v>
+      </c>
+      <c r="N19">
+        <v>162.314409</v>
+      </c>
+      <c r="O19">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P19">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q19">
+        <v>13995.4047975548</v>
+      </c>
+      <c r="R19">
+        <v>125958.6431779932</v>
+      </c>
+      <c r="S19">
+        <v>0.2450662240235379</v>
+      </c>
+      <c r="T19">
+        <v>0.2471840544054016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>258.672133</v>
+      </c>
+      <c r="H20">
+        <v>776.016399</v>
+      </c>
+      <c r="I20">
+        <v>0.5133162713366615</v>
+      </c>
+      <c r="J20">
+        <v>0.5175232224251752</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N20">
+        <v>176.802616</v>
+      </c>
+      <c r="O20">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P20">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q20">
+        <v>15244.63660023331</v>
+      </c>
+      <c r="R20">
+        <v>137201.7294020998</v>
+      </c>
+      <c r="S20">
+        <v>0.2669408696833782</v>
+      </c>
+      <c r="T20">
+        <v>0.2692477379033018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>258.672133</v>
+      </c>
+      <c r="H21">
+        <v>776.016399</v>
+      </c>
+      <c r="I21">
+        <v>0.5133162713366615</v>
+      </c>
+      <c r="J21">
+        <v>0.5175232224251752</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.150414</v>
+      </c>
+      <c r="N21">
+        <v>0.300828</v>
+      </c>
+      <c r="O21">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P21">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q21">
+        <v>38.907910213062</v>
+      </c>
+      <c r="R21">
+        <v>233.447461278372</v>
+      </c>
+      <c r="S21">
+        <v>0.0006812960952889234</v>
+      </c>
+      <c r="T21">
+        <v>0.0004581225115921049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12.2891965</v>
+      </c>
+      <c r="H22">
+        <v>24.578393</v>
+      </c>
+      <c r="I22">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J22">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.353392</v>
+      </c>
+      <c r="O22">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P22">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q22">
+        <v>1.447634576509333</v>
+      </c>
+      <c r="R22">
+        <v>8.685807459055999</v>
+      </c>
+      <c r="S22">
+        <v>2.534877301248468E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.704522253768809E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12.2891965</v>
+      </c>
+      <c r="H23">
+        <v>24.578393</v>
+      </c>
+      <c r="I23">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J23">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.020824</v>
+      </c>
+      <c r="N23">
+        <v>0.062472</v>
+      </c>
+      <c r="O23">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P23">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q23">
+        <v>0.255910227916</v>
+      </c>
+      <c r="R23">
+        <v>1.535461367496</v>
+      </c>
+      <c r="S23">
+        <v>4.481110346685672E-06</v>
+      </c>
+      <c r="T23">
+        <v>3.013223679014947E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>12.2891965</v>
+      </c>
+      <c r="H24">
+        <v>24.578393</v>
+      </c>
+      <c r="I24">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J24">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.104803</v>
+      </c>
+      <c r="N24">
+        <v>162.314409</v>
+      </c>
+      <c r="O24">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P24">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q24">
+        <v>664.9045556607895</v>
+      </c>
+      <c r="R24">
+        <v>3989.427333964737</v>
+      </c>
+      <c r="S24">
+        <v>0.01164279641417067</v>
+      </c>
+      <c r="T24">
+        <v>0.007828941296006482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>12.2891965</v>
+      </c>
+      <c r="H25">
+        <v>24.578393</v>
+      </c>
+      <c r="I25">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J25">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N25">
+        <v>176.802616</v>
+      </c>
+      <c r="O25">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P25">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q25">
+        <v>724.2540299126813</v>
+      </c>
+      <c r="R25">
+        <v>4345.524179476088</v>
+      </c>
+      <c r="S25">
+        <v>0.01268203406131857</v>
+      </c>
+      <c r="T25">
+        <v>0.00852775369834465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12.2891965</v>
+      </c>
+      <c r="H26">
+        <v>24.578393</v>
+      </c>
+      <c r="I26">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J26">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.150414</v>
+      </c>
+      <c r="N26">
+        <v>0.300828</v>
+      </c>
+      <c r="O26">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P26">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q26">
+        <v>1.848467202351</v>
+      </c>
+      <c r="R26">
+        <v>7.393868809403999</v>
+      </c>
+      <c r="S26">
+        <v>3.236754378055986E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.450989327876022E-05</v>
       </c>
     </row>
   </sheetData>
